--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp8a</t>
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H2">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N2">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O2">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P2">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q2">
-        <v>2.857840498166872</v>
+        <v>4.585939204617334</v>
       </c>
       <c r="R2">
-        <v>2.857840498166872</v>
+        <v>41.27345284155601</v>
       </c>
       <c r="S2">
-        <v>0.06855091552083829</v>
+        <v>0.02919753818259703</v>
       </c>
       <c r="T2">
-        <v>0.06855091552083829</v>
+        <v>0.03046969159963667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H3">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N3">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O3">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P3">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q3">
-        <v>4.376169080420845</v>
+        <v>6.919655587910666</v>
       </c>
       <c r="R3">
-        <v>4.376169080420845</v>
+        <v>62.27690029119601</v>
       </c>
       <c r="S3">
-        <v>0.1049710076994357</v>
+        <v>0.04405573192837414</v>
       </c>
       <c r="T3">
-        <v>0.1049710076994357</v>
+        <v>0.04597526533431961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H4">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N4">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O4">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P4">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q4">
-        <v>17.23617007574864</v>
+        <v>32.62975626629466</v>
       </c>
       <c r="R4">
-        <v>17.23617007574864</v>
+        <v>293.6678063966519</v>
       </c>
       <c r="S4">
-        <v>0.4134433812955413</v>
+        <v>0.2077455700927614</v>
       </c>
       <c r="T4">
-        <v>0.4134433812955413</v>
+        <v>0.2167971632515943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H5">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N5">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O5">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P5">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q5">
-        <v>14.13187494486336</v>
+        <v>24.626028923992</v>
       </c>
       <c r="R5">
-        <v>14.13187494486336</v>
+        <v>221.634260315928</v>
       </c>
       <c r="S5">
-        <v>0.3389807675123138</v>
+        <v>0.1567878220169281</v>
       </c>
       <c r="T5">
-        <v>0.3389807675123138</v>
+        <v>0.1636191569836522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,1301 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.417236</v>
+      </c>
+      <c r="H6">
+        <v>1.251708</v>
+      </c>
+      <c r="I6">
+        <v>0.4673765452554602</v>
+      </c>
+      <c r="J6">
+        <v>0.4774473645966479</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>11.1389315</v>
+      </c>
+      <c r="N6">
+        <v>22.277863</v>
+      </c>
+      <c r="O6">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P6">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q6">
+        <v>4.647563223334</v>
+      </c>
+      <c r="R6">
+        <v>27.885379340004</v>
+      </c>
+      <c r="S6">
+        <v>0.02958988303479946</v>
+      </c>
+      <c r="T6">
+        <v>0.02058608742744504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.236933</v>
+      </c>
+      <c r="H7">
+        <v>0.710799</v>
+      </c>
+      <c r="I7">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J7">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.99123566666667</v>
+      </c>
+      <c r="N7">
+        <v>32.973707</v>
+      </c>
+      <c r="O7">
+        <v>0.06247112414817082</v>
+      </c>
+      <c r="P7">
+        <v>0.06381790718517791</v>
+      </c>
+      <c r="Q7">
+        <v>2.604186440210333</v>
+      </c>
+      <c r="R7">
+        <v>23.437677961893</v>
+      </c>
+      <c r="S7">
+        <v>0.0165802095557844</v>
+      </c>
+      <c r="T7">
+        <v>0.01730261875719429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.236933</v>
+      </c>
+      <c r="H8">
+        <v>0.710799</v>
+      </c>
+      <c r="I8">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J8">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16.58451233333333</v>
+      </c>
+      <c r="N8">
+        <v>49.753537</v>
+      </c>
+      <c r="O8">
+        <v>0.09426175184784683</v>
+      </c>
+      <c r="P8">
+        <v>0.09629389277948987</v>
+      </c>
+      <c r="Q8">
+        <v>3.929418260673666</v>
+      </c>
+      <c r="R8">
+        <v>35.364764346063</v>
+      </c>
+      <c r="S8">
+        <v>0.02501763206670917</v>
+      </c>
+      <c r="T8">
+        <v>0.0261076645866041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.281123305268752</v>
-      </c>
-      <c r="H6">
-        <v>0.281123305268752</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>10.9818618476871</v>
-      </c>
-      <c r="N6">
-        <v>10.9818618476871</v>
-      </c>
-      <c r="O6">
-        <v>0.07405392797187098</v>
-      </c>
-      <c r="P6">
-        <v>0.07405392797187098</v>
-      </c>
-      <c r="Q6">
-        <v>3.087257300626602</v>
-      </c>
-      <c r="R6">
-        <v>3.087257300626602</v>
-      </c>
-      <c r="S6">
-        <v>0.07405392797187098</v>
-      </c>
-      <c r="T6">
-        <v>0.07405392797187098</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.236933</v>
+      </c>
+      <c r="H9">
+        <v>0.710799</v>
+      </c>
+      <c r="I9">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J9">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>78.20455633333331</v>
+      </c>
+      <c r="N9">
+        <v>234.613669</v>
+      </c>
+      <c r="O9">
+        <v>0.4444929301687811</v>
+      </c>
+      <c r="P9">
+        <v>0.4540755260734272</v>
+      </c>
+      <c r="Q9">
+        <v>18.52924014572566</v>
+      </c>
+      <c r="R9">
+        <v>166.763161311531</v>
+      </c>
+      <c r="S9">
+        <v>0.1179710790986114</v>
+      </c>
+      <c r="T9">
+        <v>0.1231111464032106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.236933</v>
+      </c>
+      <c r="H10">
+        <v>0.710799</v>
+      </c>
+      <c r="I10">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J10">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>59.02182200000001</v>
+      </c>
+      <c r="N10">
+        <v>177.065466</v>
+      </c>
+      <c r="O10">
+        <v>0.3354636076811054</v>
+      </c>
+      <c r="P10">
+        <v>0.3426956961462742</v>
+      </c>
+      <c r="Q10">
+        <v>13.984217351926</v>
+      </c>
+      <c r="R10">
+        <v>125.857956167334</v>
+      </c>
+      <c r="S10">
+        <v>0.08903404556159301</v>
+      </c>
+      <c r="T10">
+        <v>0.09291330978536769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.236933</v>
+      </c>
+      <c r="H11">
+        <v>0.710799</v>
+      </c>
+      <c r="I11">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J11">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.1389315</v>
+      </c>
+      <c r="N11">
+        <v>22.277863</v>
+      </c>
+      <c r="O11">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P11">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q11">
+        <v>2.6391804570895</v>
+      </c>
+      <c r="R11">
+        <v>15.835082742537</v>
+      </c>
+      <c r="S11">
+        <v>0.01680300778716156</v>
+      </c>
+      <c r="T11">
+        <v>0.01169008295652061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J12">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.99123566666667</v>
+      </c>
+      <c r="N12">
+        <v>32.973707</v>
+      </c>
+      <c r="O12">
+        <v>0.06247112414817082</v>
+      </c>
+      <c r="P12">
+        <v>0.06381790718517791</v>
+      </c>
+      <c r="Q12">
+        <v>1.311998155313445</v>
+      </c>
+      <c r="R12">
+        <v>11.807983397821</v>
+      </c>
+      <c r="S12">
+        <v>0.008353167045191484</v>
+      </c>
+      <c r="T12">
+        <v>0.008717119304905529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J13">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.58451233333333</v>
+      </c>
+      <c r="N13">
+        <v>49.753537</v>
+      </c>
+      <c r="O13">
+        <v>0.09426175184784683</v>
+      </c>
+      <c r="P13">
+        <v>0.09629389277948987</v>
+      </c>
+      <c r="Q13">
+        <v>1.979654540034555</v>
+      </c>
+      <c r="R13">
+        <v>17.816890860311</v>
+      </c>
+      <c r="S13">
+        <v>0.01260396975232767</v>
+      </c>
+      <c r="T13">
+        <v>0.01315313191416517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J14">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>78.20455633333331</v>
+      </c>
+      <c r="N14">
+        <v>234.613669</v>
+      </c>
+      <c r="O14">
+        <v>0.4444929301687811</v>
+      </c>
+      <c r="P14">
+        <v>0.4540755260734272</v>
+      </c>
+      <c r="Q14">
+        <v>9.335095412211885</v>
+      </c>
+      <c r="R14">
+        <v>84.01585870990698</v>
+      </c>
+      <c r="S14">
+        <v>0.05943423856596597</v>
+      </c>
+      <c r="T14">
+        <v>0.06202382229073046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J15">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.02182200000001</v>
+      </c>
+      <c r="N15">
+        <v>177.065466</v>
+      </c>
+      <c r="O15">
+        <v>0.3354636076811054</v>
+      </c>
+      <c r="P15">
+        <v>0.3426956961462742</v>
+      </c>
+      <c r="Q15">
+        <v>7.045297174555333</v>
+      </c>
+      <c r="R15">
+        <v>63.407674570998</v>
+      </c>
+      <c r="S15">
+        <v>0.04485566076730994</v>
+      </c>
+      <c r="T15">
+        <v>0.04681004752970885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J16">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.1389315</v>
+      </c>
+      <c r="N16">
+        <v>22.277863</v>
+      </c>
+      <c r="O16">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P16">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q16">
+        <v>1.329628262314833</v>
+      </c>
+      <c r="R16">
+        <v>7.977769573888999</v>
+      </c>
+      <c r="S16">
+        <v>0.008465413566431461</v>
+      </c>
+      <c r="T16">
+        <v>0.005889504314129454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.062692</v>
+      </c>
+      <c r="H17">
+        <v>0.188076</v>
+      </c>
+      <c r="I17">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J17">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.99123566666667</v>
+      </c>
+      <c r="N17">
+        <v>32.973707</v>
+      </c>
+      <c r="O17">
+        <v>0.06247112414817082</v>
+      </c>
+      <c r="P17">
+        <v>0.06381790718517791</v>
+      </c>
+      <c r="Q17">
+        <v>0.6890625464146667</v>
+      </c>
+      <c r="R17">
+        <v>6.201562917732001</v>
+      </c>
+      <c r="S17">
+        <v>0.004387090432616967</v>
+      </c>
+      <c r="T17">
+        <v>0.004578238468790857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.062692</v>
+      </c>
+      <c r="H18">
+        <v>0.188076</v>
+      </c>
+      <c r="I18">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J18">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>16.58451233333333</v>
+      </c>
+      <c r="N18">
+        <v>49.753537</v>
+      </c>
+      <c r="O18">
+        <v>0.09426175184784683</v>
+      </c>
+      <c r="P18">
+        <v>0.09629389277948987</v>
+      </c>
+      <c r="Q18">
+        <v>1.039716247201333</v>
+      </c>
+      <c r="R18">
+        <v>9.357446224812</v>
+      </c>
+      <c r="S18">
+        <v>0.006619615627734977</v>
+      </c>
+      <c r="T18">
+        <v>0.006908036061938963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.062692</v>
+      </c>
+      <c r="H19">
+        <v>0.188076</v>
+      </c>
+      <c r="I19">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J19">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>78.20455633333331</v>
+      </c>
+      <c r="N19">
+        <v>234.613669</v>
+      </c>
+      <c r="O19">
+        <v>0.4444929301687811</v>
+      </c>
+      <c r="P19">
+        <v>0.4540755260734272</v>
+      </c>
+      <c r="Q19">
+        <v>4.902800045649332</v>
+      </c>
+      <c r="R19">
+        <v>44.12520041084399</v>
+      </c>
+      <c r="S19">
+        <v>0.03121491261601443</v>
+      </c>
+      <c r="T19">
+        <v>0.03257496418949694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.062692</v>
+      </c>
+      <c r="H20">
+        <v>0.188076</v>
+      </c>
+      <c r="I20">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J20">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>59.02182200000001</v>
+      </c>
+      <c r="N20">
+        <v>177.065466</v>
+      </c>
+      <c r="O20">
+        <v>0.3354636076811054</v>
+      </c>
+      <c r="P20">
+        <v>0.3426956961462742</v>
+      </c>
+      <c r="Q20">
+        <v>3.700196064824</v>
+      </c>
+      <c r="R20">
+        <v>33.301764583416</v>
+      </c>
+      <c r="S20">
+        <v>0.02355823116386231</v>
+      </c>
+      <c r="T20">
+        <v>0.02458467675277091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.062692</v>
+      </c>
+      <c r="H21">
+        <v>0.188076</v>
+      </c>
+      <c r="I21">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J21">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.1389315</v>
+      </c>
+      <c r="N21">
+        <v>22.277863</v>
+      </c>
+      <c r="O21">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P21">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q21">
+        <v>0.698321893598</v>
+      </c>
+      <c r="R21">
+        <v>4.189931361588</v>
+      </c>
+      <c r="S21">
+        <v>0.004446042400985647</v>
+      </c>
+      <c r="T21">
+        <v>0.003093172672064214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.0564905</v>
+      </c>
+      <c r="H22">
+        <v>0.112981</v>
+      </c>
+      <c r="I22">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J22">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.99123566666667</v>
+      </c>
+      <c r="N22">
+        <v>32.973707</v>
+      </c>
+      <c r="O22">
+        <v>0.06247112414817082</v>
+      </c>
+      <c r="P22">
+        <v>0.06381790718517791</v>
+      </c>
+      <c r="Q22">
+        <v>0.6209003984278334</v>
+      </c>
+      <c r="R22">
+        <v>3.725402390567</v>
+      </c>
+      <c r="S22">
+        <v>0.003953118931980935</v>
+      </c>
+      <c r="T22">
+        <v>0.002750239054650566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.0564905</v>
+      </c>
+      <c r="H23">
+        <v>0.112981</v>
+      </c>
+      <c r="I23">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J23">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.58451233333333</v>
+      </c>
+      <c r="N23">
+        <v>49.753537</v>
+      </c>
+      <c r="O23">
+        <v>0.09426175184784683</v>
+      </c>
+      <c r="P23">
+        <v>0.09629389277948987</v>
+      </c>
+      <c r="Q23">
+        <v>0.9368673939661666</v>
+      </c>
+      <c r="R23">
+        <v>5.621204363797</v>
+      </c>
+      <c r="S23">
+        <v>0.005964802472700867</v>
+      </c>
+      <c r="T23">
+        <v>0.004149794882462015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.0564905</v>
+      </c>
+      <c r="H24">
+        <v>0.112981</v>
+      </c>
+      <c r="I24">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J24">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>78.20455633333331</v>
+      </c>
+      <c r="N24">
+        <v>234.613669</v>
+      </c>
+      <c r="O24">
+        <v>0.4444929301687811</v>
+      </c>
+      <c r="P24">
+        <v>0.4540755260734272</v>
+      </c>
+      <c r="Q24">
+        <v>4.417814489548165</v>
+      </c>
+      <c r="R24">
+        <v>26.506886937289</v>
+      </c>
+      <c r="S24">
+        <v>0.02812712979542786</v>
+      </c>
+      <c r="T24">
+        <v>0.01956842993839487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.0564905</v>
+      </c>
+      <c r="H25">
+        <v>0.112981</v>
+      </c>
+      <c r="I25">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J25">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>59.02182200000001</v>
+      </c>
+      <c r="N25">
+        <v>177.065466</v>
+      </c>
+      <c r="O25">
+        <v>0.3354636076811054</v>
+      </c>
+      <c r="P25">
+        <v>0.3426956961462742</v>
+      </c>
+      <c r="Q25">
+        <v>3.334172235691</v>
+      </c>
+      <c r="R25">
+        <v>20.005033414146</v>
+      </c>
+      <c r="S25">
+        <v>0.02122784817141204</v>
+      </c>
+      <c r="T25">
+        <v>0.01476850509477451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.0564905</v>
+      </c>
+      <c r="H26">
+        <v>0.112981</v>
+      </c>
+      <c r="I26">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J26">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.1389315</v>
+      </c>
+      <c r="N26">
+        <v>22.277863</v>
+      </c>
+      <c r="O26">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P26">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q26">
+        <v>0.62924380990075</v>
+      </c>
+      <c r="R26">
+        <v>2.516975239603</v>
+      </c>
+      <c r="S26">
+        <v>0.004006239364717663</v>
+      </c>
+      <c r="T26">
+        <v>0.001858130445471442</v>
       </c>
     </row>
   </sheetData>
